--- a/Requisitos funcionales aplicación.xlsx
+++ b/Requisitos funcionales aplicación.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abena\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808"/>
   </bookViews>
   <sheets>
     <sheet name="RF01" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'RF08'!$B$3:$C$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +293,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,52 +594,77 @@
     <col min="3" max="3" width="85.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,8 +672,13 @@
     <col min="3" max="3" width="85.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
     <row r="4" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -642,7 +687,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -651,7 +696,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -660,6 +705,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -667,18 +713,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,17 +784,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,17 +842,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,17 +900,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,17 +958,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,17 +1016,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +1074,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>